--- a/BackTest/2019-10-30 BackTest XLM.xlsx
+++ b/BackTest/2019-10-30 BackTest XLM.xlsx
@@ -451,20 +451,14 @@
         <v>75.74999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>75.59999999999999</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>75.74499999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>75.7</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>75.74499999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>75.7</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>75.73999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>75.7</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>75.735</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>75.90000000000001</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>75.73999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>76</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>75.73999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>75.8</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>75.735</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>75.7</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>75.75</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>76.09999999999999</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>75.77500000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>76.2</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>75.78</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>75.90000000000001</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>75.78500000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>75.90000000000001</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>75.80000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>76</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>75.81500000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>76</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +941,14 @@
         <v>75.83500000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>76.09999999999999</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +976,14 @@
         <v>75.85499999999999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>76.09999999999999</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1114,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1153,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1192,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1231,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1270,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1348,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1387,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1426,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1465,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1504,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1543,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1582,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1621,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1660,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1699,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1777,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1816,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1855,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1894,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1933,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1972,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2011,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2050,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2089,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2128,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2160,20 +1956,14 @@
         <v>75.815</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>75.5</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2201,20 +1991,14 @@
         <v>75.8</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>75.5</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2242,20 +2026,14 @@
         <v>75.77500000000001</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>75.5</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2283,20 +2061,14 @@
         <v>75.73999999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>75.3</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2324,20 +2096,14 @@
         <v>75.705</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>75.2</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2365,20 +2131,14 @@
         <v>75.67999999999999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>75.40000000000001</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2406,20 +2166,14 @@
         <v>75.655</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>75.40000000000001</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2447,20 +2201,14 @@
         <v>75.62</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>75.40000000000001</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2488,20 +2236,14 @@
         <v>75.595</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>75.40000000000001</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2529,20 +2271,14 @@
         <v>75.58</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>75.59999999999999</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2570,20 +2306,14 @@
         <v>75.56</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>75.40000000000001</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2611,20 +2341,14 @@
         <v>75.54000000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>75.40000000000001</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2652,20 +2376,14 @@
         <v>75.51500000000001</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>75.3</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2693,20 +2411,14 @@
         <v>75.495</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>75.3</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2734,20 +2446,14 @@
         <v>75.47</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>75.3</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2775,20 +2481,14 @@
         <v>75.45000000000002</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>75.40000000000001</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2816,20 +2516,14 @@
         <v>75.44000000000001</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>75.59999999999999</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2857,20 +2551,14 @@
         <v>75.435</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>75.59999999999999</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2898,20 +2586,14 @@
         <v>75.435</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>75.7</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2939,20 +2621,14 @@
         <v>75.44500000000001</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>75.7</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2980,20 +2656,14 @@
         <v>75.45500000000001</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>75.7</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3021,20 +2691,14 @@
         <v>75.465</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>75.7</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3062,20 +2726,14 @@
         <v>75.47500000000001</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>75.7</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3103,20 +2761,14 @@
         <v>75.49500000000002</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>75.7</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3144,20 +2796,14 @@
         <v>75.52500000000001</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>75.8</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3185,20 +2831,14 @@
         <v>75.545</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>75.8</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3226,20 +2866,14 @@
         <v>75.565</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>75.8</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3267,20 +2901,14 @@
         <v>75.57499999999999</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>75.59999999999999</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3308,20 +2936,14 @@
         <v>75.59499999999998</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>75.8</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3349,20 +2971,14 @@
         <v>75.60499999999999</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>75.8</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3390,20 +3006,14 @@
         <v>75.62999999999998</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>75.90000000000001</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3431,20 +3041,14 @@
         <v>75.66499999999998</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>76.09999999999999</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3472,20 +3076,14 @@
         <v>75.70499999999997</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>76.09999999999999</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3513,20 +3111,14 @@
         <v>75.73999999999998</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>76</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3554,20 +3146,14 @@
         <v>75.77499999999998</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>76</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3595,20 +3181,14 @@
         <v>75.80999999999997</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>76.09999999999999</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3636,20 +3216,14 @@
         <v>75.83999999999997</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>76.2</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3677,20 +3251,14 @@
         <v>75.86999999999998</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>76.2</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3725,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3764,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3803,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3842,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3881,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3920,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3959,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3998,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4037,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4076,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4115,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4154,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4193,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4232,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4271,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4310,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4349,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4388,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4427,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4466,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4505,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4544,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4583,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4622,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4661,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4700,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4739,11 +4203,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4778,11 +4238,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4817,11 +4273,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4856,11 +4308,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4895,11 +4343,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4934,11 +4378,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4973,11 +4413,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5012,11 +4448,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5051,11 +4483,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5090,11 +4518,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5129,11 +4553,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5168,11 +4588,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5207,11 +4623,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5246,11 +4658,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5285,11 +4693,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5324,11 +4728,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5363,11 +4763,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5402,11 +4798,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5441,11 +4833,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5480,11 +4868,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5519,11 +4903,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5558,11 +4938,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5597,11 +4973,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5636,11 +5008,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5675,11 +5043,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5714,11 +5078,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5753,11 +5113,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5792,11 +5148,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5831,11 +5183,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5870,11 +5218,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5909,11 +5253,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5948,11 +5288,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5987,11 +5323,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6026,11 +5358,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6065,11 +5393,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6104,11 +5428,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6143,11 +5463,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6182,11 +5498,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6221,11 +5533,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6260,11 +5568,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6299,11 +5603,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6338,11 +5638,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6377,11 +5673,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6416,11 +5708,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6455,11 +5743,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6494,11 +5778,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6533,11 +5813,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6572,11 +5848,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6611,11 +5883,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6650,11 +5918,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6689,11 +5953,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6728,11 +5988,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6767,11 +6023,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6806,11 +6058,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6845,11 +6093,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6884,11 +6128,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6916,18 +6156,18 @@
         <v>76.16499999999998</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="K165" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6955,16 +6195,20 @@
         <v>76.16999999999997</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="K166" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M166" t="n">
@@ -7000,7 +6244,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7039,7 +6285,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7078,7 +6326,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7117,7 +6367,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7156,7 +6408,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7195,7 +6449,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7234,7 +6490,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7273,7 +6531,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7312,7 +6572,9 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7351,7 +6613,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7390,7 +6654,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7429,7 +6695,9 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7468,7 +6736,9 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7507,7 +6777,9 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7546,7 +6818,9 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7585,7 +6859,9 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7624,7 +6900,9 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7663,7 +6941,9 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7702,7 +6982,9 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7741,7 +7023,9 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7780,7 +7064,9 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7819,7 +7105,9 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7858,7 +7146,9 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7897,7 +7187,9 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7936,7 +7228,9 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7975,7 +7269,9 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8014,7 +7310,9 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8053,7 +7351,9 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8092,7 +7392,9 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8131,7 +7433,9 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8170,7 +7474,9 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8209,7 +7515,9 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8245,16 +7553,20 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M199" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8282,11 +7594,17 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8317,11 +7635,17 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8355,8 +7679,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8387,11 +7717,17 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8422,11 +7758,17 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8457,11 +7799,17 @@
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8492,11 +7840,17 @@
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8527,11 +7881,17 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8565,8 +7925,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8600,8 +7966,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8635,8 +8007,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8670,8 +8048,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8705,8 +8089,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8740,8 +8130,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8775,8 +8171,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8810,8 +8212,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8845,8 +8253,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8880,8 +8294,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8915,8 +8335,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8950,8 +8376,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8985,8 +8417,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9020,8 +8458,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9055,8 +8499,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9090,8 +8540,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9125,8 +8581,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9160,8 +8622,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9195,8 +8663,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9230,8 +8704,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9265,8 +8745,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9300,8 +8786,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9335,8 +8827,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9370,8 +8868,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9399,14 +8903,22 @@
         <v>77.13499999999999</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="K232" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9440,8 +8952,14 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9475,8 +8993,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9510,8 +9034,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9545,8 +9075,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9580,8 +9116,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9615,8 +9157,14 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9650,8 +9198,14 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9685,8 +9239,14 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9720,8 +9280,14 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9749,14 +9315,22 @@
         <v>77.20499999999997</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="K242" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9790,8 +9364,14 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9825,8 +9405,14 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9860,8 +9446,14 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9895,8 +9487,14 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9930,8 +9528,14 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9965,8 +9569,14 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10000,8 +9610,14 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10035,8 +9651,14 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10070,8 +9692,14 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10105,8 +9733,14 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10140,8 +9774,14 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10175,8 +9815,14 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10210,8 +9856,14 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10245,8 +9897,14 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10280,8 +9938,14 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10315,8 +9979,14 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10350,8 +10020,14 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10385,8 +10061,14 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10420,8 +10102,14 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10455,8 +10143,14 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10490,8 +10184,14 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10525,8 +10225,14 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10560,8 +10266,14 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10595,8 +10307,14 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10630,8 +10348,14 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10665,8 +10389,14 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10700,8 +10430,14 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10735,8 +10471,14 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10770,8 +10512,14 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10805,8 +10553,14 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10840,8 +10594,14 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10875,8 +10635,14 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10910,8 +10676,14 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10945,8 +10717,14 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10980,8 +10758,14 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -11015,8 +10799,14 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -11050,8 +10840,14 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -11085,8 +10881,14 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11120,8 +10922,14 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11155,8 +10963,14 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11190,8 +11004,14 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11225,8 +11045,14 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11260,8 +11086,14 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11295,8 +11127,14 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11330,8 +11168,14 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11365,8 +11209,14 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11400,8 +11250,14 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11435,8 +11291,14 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11470,8 +11332,14 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11505,8 +11373,14 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11540,8 +11414,14 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11575,8 +11455,14 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11610,8 +11496,14 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11645,8 +11537,14 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11680,8 +11578,14 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11715,8 +11619,14 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11750,8 +11660,14 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11785,8 +11701,14 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11820,8 +11742,14 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11855,8 +11783,14 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11890,8 +11824,14 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11925,8 +11865,14 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11960,8 +11906,14 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11995,8 +11947,14 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -12030,8 +11988,14 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -12065,8 +12029,14 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -12100,8 +12070,14 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12135,8 +12111,14 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12170,8 +12152,14 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12205,8 +12193,14 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12240,8 +12234,14 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12275,8 +12275,14 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12310,8 +12316,14 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12345,8 +12357,14 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12380,8 +12398,14 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12415,8 +12439,14 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12450,8 +12480,14 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12485,8 +12521,14 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12520,8 +12562,14 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12555,8 +12603,14 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12590,8 +12644,14 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12625,8 +12685,14 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12660,8 +12726,14 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12695,8 +12767,14 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12730,8 +12808,14 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12765,8 +12849,14 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12800,8 +12890,14 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12835,8 +12931,14 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12870,8 +12972,14 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12905,8 +13013,14 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12940,8 +13054,14 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12975,8 +13095,14 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -13010,8 +13136,14 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -13045,8 +13177,14 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -13080,8 +13218,14 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -13115,8 +13259,14 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -13150,8 +13300,14 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -13185,8 +13341,14 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -13220,8 +13382,14 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13255,8 +13423,14 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13290,8 +13464,14 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13325,8 +13505,14 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13360,8 +13546,14 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13395,8 +13587,14 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13430,8 +13628,14 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13465,8 +13669,14 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13500,8 +13710,14 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13532,13 +13748,19 @@
         <v>0</v>
       </c>
       <c r="I350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M350" t="n">
-        <v>1</v>
+        <v>1.040871559633028</v>
       </c>
     </row>
     <row r="351">
@@ -13567,7 +13789,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
@@ -16224,13 +16446,17 @@
         <v>77.93499999999997</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
       </c>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="K427" t="n">
+        <v>77.90000000000001</v>
+      </c>
       <c r="L427" t="inlineStr"/>
       <c r="M427" t="n">
         <v>1</v>
@@ -16259,14 +16485,22 @@
         <v>77.87499999999997</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
       </c>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="K428" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16294,14 +16528,22 @@
         <v>77.82999999999997</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
       </c>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="K429" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16329,13 +16571,17 @@
         <v>77.76999999999997</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
       </c>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="K430" t="n">
+        <v>77.8</v>
+      </c>
       <c r="L430" t="inlineStr"/>
       <c r="M430" t="n">
         <v>1</v>
@@ -16364,14 +16610,22 @@
         <v>77.72999999999998</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
       </c>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="K431" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16399,14 +16653,22 @@
         <v>77.69999999999997</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
       </c>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="K432" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16434,14 +16696,22 @@
         <v>77.67999999999998</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
       </c>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>78</v>
+      </c>
+      <c r="K433" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16475,8 +16745,14 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="K434" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16510,8 +16786,14 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16545,8 +16827,14 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16580,8 +16868,14 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16615,8 +16909,14 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="K438" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16650,8 +16950,14 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="K439" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16685,8 +16991,14 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16720,8 +17032,14 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16755,8 +17073,14 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16790,8 +17114,14 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="K443" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16825,8 +17155,14 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16860,8 +17196,14 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="K445" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16895,8 +17237,14 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16930,8 +17278,14 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="K447" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -16965,8 +17319,14 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="K448" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -17000,8 +17360,14 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="K449" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -17035,8 +17401,14 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="K450" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -17070,8 +17442,14 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -17105,8 +17483,14 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="K452" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -17140,8 +17524,14 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="K453" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -17175,8 +17565,14 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="K454" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17210,8 +17606,14 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="K455" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -17245,8 +17647,14 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="K456" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17280,8 +17688,14 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="K457" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17315,8 +17729,14 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="K458" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17350,8 +17770,14 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="K459" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17385,8 +17811,14 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="K460" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17420,8 +17852,14 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="K461" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17455,8 +17893,14 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="K462" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -17490,8 +17934,14 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="K463" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -17525,8 +17975,14 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="K464" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17560,8 +18016,14 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="K465" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17595,8 +18057,14 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="K466" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17630,8 +18098,14 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="K467" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17665,8 +18139,14 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="K468" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17700,8 +18180,14 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="K469" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17735,8 +18221,14 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="K470" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17770,8 +18262,14 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="K471" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17805,8 +18303,14 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="K472" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -17840,8 +18344,14 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="K473" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -17875,8 +18385,14 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="K474" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -17910,8 +18426,14 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="K475" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -17945,8 +18467,14 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="K476" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -17980,8 +18508,14 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="K477" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -18015,8 +18549,14 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="K478" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -18050,8 +18590,14 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="K479" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -18085,8 +18631,14 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="K480" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -18120,8 +18672,14 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="K481" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -18155,8 +18713,14 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="K482" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -18190,8 +18754,14 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="K483" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -18225,8 +18795,14 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="K484" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -18260,8 +18836,14 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="K485" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -18295,8 +18877,14 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="K486" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -18330,8 +18918,14 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="K487" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -18365,8 +18959,14 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="K488" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -18400,8 +19000,14 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="K489" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-30 BackTest XLM.xlsx
+++ b/BackTest/2019-10-30 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1144,251 +1144,229 @@
         <v>-96459.34817065</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
+      <c r="C24" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="D24" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="E24" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>22685.6472</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-96459.34817065</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>53.1914</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-96406.15677065001</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>20828.7962</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-96406.15677065001</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="C27" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>80216.5147</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-96406.15677065001</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>58105.4882</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-96406.15677065001</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="C29" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>36749.8803</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-96406.15677065001</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="C24" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="D24" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="E24" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="F24" t="n">
-        <v>22685.6472</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-96459.34817065</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="C25" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="D25" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="E25" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="F25" t="n">
-        <v>53.1914</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-96406.15677065001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="C26" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="D26" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="E26" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="F26" t="n">
-        <v>20828.7962</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-96406.15677065001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="C27" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="D27" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="E27" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="F27" t="n">
-        <v>80216.5147</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-96406.15677065001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="C28" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="D28" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="E28" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="F28" t="n">
-        <v>58105.4882</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-96406.15677065001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="C29" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="D29" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="E29" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="F29" t="n">
-        <v>36749.8803</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-96406.15677065001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1417,12 +1395,14 @@
         <v>-96406.15677065001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>75.2</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1456,12 +1436,14 @@
         <v>-96406.15677065001</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>75.2</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1495,12 +1477,14 @@
         <v>-96406.15677065001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>75.2</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1534,12 +1518,14 @@
         <v>-96406.15677065001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>75.2</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1573,12 +1559,14 @@
         <v>-96406.15677065001</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>75.2</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1612,12 +1600,14 @@
         <v>-96406.15677065001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>75.2</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1651,12 +1641,14 @@
         <v>-95222.15677065001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>75.2</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1690,12 +1682,14 @@
         <v>-96622.15677065001</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>75.59999999999999</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1729,12 +1723,14 @@
         <v>-96622.15677065001</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>75.5</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1768,12 +1764,14 @@
         <v>-87046.34237065</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>75.5</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1807,12 +1805,14 @@
         <v>-85846.34237065</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>75.59999999999999</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1846,12 +1846,14 @@
         <v>-82499.16027065</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>75.7</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1885,12 +1887,14 @@
         <v>-82499.16027065</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>75.8</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1924,12 +1928,14 @@
         <v>-83633.78777065</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>75.8</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1963,12 +1969,14 @@
         <v>-83048.35277065</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>75.7</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2002,12 +2010,14 @@
         <v>-66701.95457065001</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>75.90000000000001</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2041,12 +2051,12 @@
         <v>-74168.22097065</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>76</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2080,12 +2090,12 @@
         <v>-74168.22097065</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2119,12 +2129,12 @@
         <v>-82384.26217065001</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2158,12 +2168,12 @@
         <v>33569.93102934999</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2197,12 +2207,12 @@
         <v>33569.93102934999</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2236,12 +2246,12 @@
         <v>33569.93102934999</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2275,12 +2285,12 @@
         <v>319219.03492935</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2317,7 +2327,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2354,7 +2366,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2391,7 +2405,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2428,7 +2444,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2462,12 +2480,12 @@
         <v>311930.3077293499</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2504,7 +2522,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2541,7 +2561,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2575,12 +2597,12 @@
         <v>307600.9077293499</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2614,12 +2636,12 @@
         <v>312533.4447293499</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2653,12 +2675,12 @@
         <v>312533.4447293499</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2692,12 +2714,12 @@
         <v>312533.4447293499</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2731,12 +2753,12 @@
         <v>312533.4447293499</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2770,12 +2792,12 @@
         <v>314033.4447293499</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2809,12 +2831,12 @@
         <v>353249.8131293499</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2848,12 +2870,12 @@
         <v>285448.9233293499</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>76</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2887,12 +2909,12 @@
         <v>292260.7955293499</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2926,12 +2948,12 @@
         <v>300144.9955293499</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2965,12 +2987,12 @@
         <v>305451.1782293499</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3004,12 +3026,12 @@
         <v>305331.1782293499</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3043,12 +3065,12 @@
         <v>306080.1782293499</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3082,12 +3104,12 @@
         <v>294068.2121293499</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3121,12 +3143,12 @@
         <v>322035.3600293499</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>76</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3160,12 +3182,12 @@
         <v>324064.2256167498</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3199,12 +3221,12 @@
         <v>319606.2008167498</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3238,12 +3260,12 @@
         <v>319606.2008167498</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3277,12 +3299,12 @@
         <v>319606.2008167498</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3316,12 +3338,12 @@
         <v>319606.2008167498</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3355,12 +3377,12 @@
         <v>319606.2008167498</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3394,12 +3416,12 @@
         <v>319606.2008167498</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3433,12 +3455,12 @@
         <v>319606.2008167498</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3472,12 +3494,12 @@
         <v>297799.0943167498</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3511,12 +3533,12 @@
         <v>297799.0943167498</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>76</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3553,7 +3575,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3590,7 +3614,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3627,7 +3653,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3664,7 +3692,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3701,7 +3731,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3738,7 +3770,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3775,7 +3809,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3812,7 +3848,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3849,7 +3887,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3886,7 +3926,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3923,7 +3965,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3960,7 +4004,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3997,7 +4043,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4034,7 +4082,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4071,7 +4121,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4108,7 +4160,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4145,7 +4199,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4182,7 +4238,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4219,7 +4277,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4256,7 +4316,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4293,7 +4355,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4330,7 +4394,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4367,7 +4433,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4404,7 +4472,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4438,12 +4508,12 @@
         <v>4784353.35411675</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4480,7 +4550,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4517,7 +4589,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4551,12 +4625,12 @@
         <v>4784353.35411675</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4593,7 +4667,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4627,12 +4703,12 @@
         <v>4779439.04514902</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4669,7 +4745,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4703,12 +4781,12 @@
         <v>4769767.09604902</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4745,7 +4823,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4779,12 +4859,14 @@
         <v>4769767.09604902</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>75.3</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4821,7 +4903,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4858,7 +4942,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4895,7 +4981,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4932,7 +5020,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4969,7 +5059,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5006,7 +5098,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5043,7 +5137,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5080,7 +5176,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5117,7 +5215,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5154,7 +5254,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5191,7 +5293,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5228,7 +5332,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5265,7 +5371,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5302,7 +5410,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5339,7 +5449,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5376,7 +5488,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5413,7 +5527,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5450,7 +5566,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5487,7 +5605,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5524,7 +5644,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5561,7 +5683,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5598,7 +5722,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5635,7 +5761,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5672,7 +5800,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5709,7 +5839,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5746,7 +5878,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5783,7 +5917,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5820,7 +5956,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5857,7 +5995,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5894,7 +6034,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5931,7 +6073,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5968,7 +6112,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6005,7 +6151,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6042,7 +6190,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6079,7 +6229,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6116,7 +6268,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6153,7 +6307,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6190,7 +6346,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6227,7 +6385,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6264,7 +6424,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6301,7 +6463,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6338,7 +6502,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6375,7 +6541,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6412,7 +6580,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6449,7 +6619,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6486,7 +6658,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6523,7 +6697,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6560,7 +6736,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6597,7 +6775,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6634,7 +6814,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6671,7 +6853,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6708,7 +6892,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6745,7 +6931,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6782,7 +6970,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6819,7 +7009,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6856,7 +7048,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6893,7 +7087,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6930,7 +7126,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6967,7 +7165,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7004,7 +7204,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7041,7 +7243,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7075,17 +7279,19 @@
         <v>8448601.4118344</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>75.2</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L180" t="n">
-        <v>1</v>
+        <v>1.012287234042553</v>
       </c>
       <c r="M180" t="inlineStr"/>
     </row>
@@ -7112,15 +7318,11 @@
         <v>5588601.4118344</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7149,15 +7351,11 @@
         <v>5582454.4118344</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7186,15 +7384,11 @@
         <v>5582454.4118344</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7223,15 +7417,11 @@
         <v>5582474.4118344</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7260,15 +7450,11 @@
         <v>122474.4118344001</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7297,15 +7483,11 @@
         <v>122539.4118344001</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7338,11 +7520,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7371,15 +7549,11 @@
         <v>122268.3634344001</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7412,11 +7586,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7449,11 +7619,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7482,15 +7648,11 @@
         <v>-5126691.00172644</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7523,11 +7685,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7560,11 +7718,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7597,11 +7751,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7634,11 +7784,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7671,11 +7817,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7708,11 +7850,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7745,11 +7883,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7782,11 +7916,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7819,11 +7949,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7856,11 +7982,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7893,11 +8015,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7930,11 +8048,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7967,11 +8081,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8004,11 +8114,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8041,11 +8147,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8078,11 +8180,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8115,11 +8213,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8152,11 +8246,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8189,11 +8279,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8226,11 +8312,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8263,11 +8345,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8300,11 +8378,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8337,11 +8411,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8374,11 +8444,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8411,11 +8477,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8448,11 +8510,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8485,11 +8543,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8522,11 +8576,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8559,11 +8609,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8596,11 +8642,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8633,11 +8675,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8670,11 +8708,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8707,11 +8741,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8744,11 +8774,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8781,11 +8807,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8818,11 +8840,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8855,11 +8873,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8892,11 +8906,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8929,11 +8939,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8966,11 +8972,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9003,11 +9005,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9040,11 +9038,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9077,11 +9071,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9114,11 +9104,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9151,11 +9137,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9188,11 +9170,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9225,11 +9203,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9262,11 +9236,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9299,11 +9269,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9336,11 +9302,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9373,11 +9335,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9410,11 +9368,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9447,11 +9401,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9480,16 +9430,14 @@
         <v>-4615860.33185267</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
       <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
@@ -9647,7 +9595,7 @@
         <v>-4639769.024174349</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9713,7 +9661,7 @@
         <v>-4629736.024174349</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9746,7 +9694,7 @@
         <v>-4629736.024174349</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9779,7 +9727,7 @@
         <v>-4629736.024174349</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9812,7 +9760,7 @@
         <v>-4530286.625274349</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9845,7 +9793,7 @@
         <v>-4539214.750274349</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9878,7 +9826,7 @@
         <v>-4491109.464874349</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9911,7 +9859,7 @@
         <v>-4640655.470174349</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9944,7 +9892,7 @@
         <v>-4640655.470174349</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9977,7 +9925,7 @@
         <v>-4663689.167874349</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10010,7 +9958,7 @@
         <v>-4649889.864874349</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10043,7 +9991,7 @@
         <v>-4649889.864874349</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10076,7 +10024,7 @@
         <v>-4654082.664874349</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10109,7 +10057,7 @@
         <v>-4654899.698074349</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10142,7 +10090,7 @@
         <v>-4669595.526974349</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10175,7 +10123,7 @@
         <v>-4686596.375374349</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10208,7 +10156,7 @@
         <v>-4691026.375374349</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10307,7 +10255,7 @@
         <v>-4714446.255874349</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10340,7 +10288,7 @@
         <v>-5978673.942274349</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10373,7 +10321,7 @@
         <v>-5980673.942274349</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10406,7 +10354,7 @@
         <v>-5982444.847374349</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10439,7 +10387,7 @@
         <v>-8732444.84737435</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10472,7 +10420,7 @@
         <v>-8732444.84737435</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10505,7 +10453,7 @@
         <v>-8730444.84737435</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10538,7 +10486,7 @@
         <v>-8730444.84737435</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10571,7 +10519,7 @@
         <v>-4730444.84737435</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10604,7 +10552,7 @@
         <v>-4730444.84737435</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10637,7 +10585,7 @@
         <v>-4730444.84737435</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10934,7 +10882,7 @@
         <v>-739947.3937743499</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11000,7 +10948,7 @@
         <v>10052.60622565006</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -14894,7 +14842,7 @@
         <v>-13416742.29623115</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14927,7 +14875,7 @@
         <v>-13256792.95513115</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14960,7 +14908,7 @@
         <v>-13341893.90973116</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14993,7 +14941,7 @@
         <v>-13394106.00043116</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15026,7 +14974,7 @@
         <v>-13392059.30853116</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -19822,6 +19770,6 @@
       <c r="M558" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest XLM.xlsx
+++ b/BackTest/2019-10-30 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1276,14 +1276,10 @@
         <v>-96406.15677065001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>75.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
@@ -1313,19 +1309,11 @@
         <v>-96406.15677065001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J28" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1354,19 +1342,11 @@
         <v>-96406.15677065001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1395,19 +1375,11 @@
         <v>-96406.15677065001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1436,19 +1408,11 @@
         <v>-96406.15677065001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J31" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1477,19 +1441,11 @@
         <v>-96406.15677065001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1518,19 +1474,11 @@
         <v>-96406.15677065001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J33" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1559,19 +1507,11 @@
         <v>-96406.15677065001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J34" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1600,19 +1540,11 @@
         <v>-96406.15677065001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J35" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1641,19 +1573,11 @@
         <v>-95222.15677065001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J36" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1682,19 +1606,11 @@
         <v>-96622.15677065001</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="J37" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1723,19 +1639,11 @@
         <v>-96622.15677065001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="J38" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1764,19 +1672,11 @@
         <v>-87046.34237065</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="J39" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1805,19 +1705,11 @@
         <v>-85846.34237065</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="J40" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1846,19 +1738,11 @@
         <v>-82499.16027065</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="J41" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1887,19 +1771,11 @@
         <v>-82499.16027065</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="J42" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1928,19 +1804,11 @@
         <v>-83633.78777065</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1969,19 +1837,11 @@
         <v>-83048.35277065</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="J44" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2010,19 +1870,11 @@
         <v>-66701.95457065001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="J45" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2054,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2093,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2132,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2171,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2210,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2249,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2288,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2327,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2366,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2405,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2444,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2483,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2522,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2561,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2600,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2639,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2678,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2717,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2756,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2795,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2834,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2873,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2912,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2951,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2990,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3029,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3068,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3107,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3146,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3185,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3224,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3263,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3302,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3341,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3380,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3419,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3458,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3497,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3536,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3575,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3614,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3653,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3692,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3731,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3770,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3809,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3848,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3887,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3926,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3965,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4004,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4043,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4082,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4121,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4160,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4199,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4238,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4277,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4316,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4355,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4394,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4433,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4472,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4511,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4550,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4589,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4628,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4667,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4706,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4745,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4784,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4823,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4859,19 +4279,11 @@
         <v>4769767.09604902</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="J118" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4903,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4942,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4981,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5020,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5059,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5098,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5137,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5176,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5215,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5254,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5293,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5332,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5371,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5410,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5449,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5488,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5527,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5566,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5605,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5644,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5683,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5722,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5761,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5800,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5839,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5878,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5917,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5956,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5995,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6034,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6073,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6112,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6151,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6190,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6229,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6268,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6307,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6346,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6385,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6424,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6463,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6502,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6541,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6580,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6619,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6658,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6697,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6736,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6775,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6814,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6853,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6892,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6931,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6970,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7009,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7048,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7087,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7126,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7165,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7204,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7243,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7279,19 +6325,13 @@
         <v>8448601.4118344</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
-        <v>1.012287234042553</v>
+        <v>1</v>
       </c>
       <c r="M180" t="inlineStr"/>
     </row>
@@ -7318,7 +6358,7 @@
         <v>5588601.4118344</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7351,7 +6391,7 @@
         <v>5582454.4118344</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7384,7 +6424,7 @@
         <v>5582454.4118344</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7417,7 +6457,7 @@
         <v>5582474.4118344</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7450,7 +6490,7 @@
         <v>122474.4118344001</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7483,7 +6523,7 @@
         <v>122539.4118344001</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7549,7 +6589,7 @@
         <v>122268.3634344001</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7648,7 +6688,7 @@
         <v>-5126691.00172644</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -9496,7 +8536,7 @@
         <v>-4610291.684774349</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9529,7 +8569,7 @@
         <v>-4593487.641674349</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9562,7 +8602,7 @@
         <v>-4593487.641674349</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9595,7 +8635,7 @@
         <v>-4639769.024174349</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9628,7 +8668,7 @@
         <v>-4639769.024174349</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9661,7 +8701,7 @@
         <v>-4629736.024174349</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9694,7 +8734,7 @@
         <v>-4629736.024174349</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9727,7 +8767,7 @@
         <v>-4629736.024174349</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9760,7 +8800,7 @@
         <v>-4530286.625274349</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9793,7 +8833,7 @@
         <v>-4539214.750274349</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9826,7 +8866,7 @@
         <v>-4491109.464874349</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9859,7 +8899,7 @@
         <v>-4640655.470174349</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9892,7 +8932,7 @@
         <v>-4640655.470174349</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9925,7 +8965,7 @@
         <v>-4663689.167874349</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9958,7 +8998,7 @@
         <v>-4649889.864874349</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9991,7 +9031,7 @@
         <v>-4649889.864874349</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10024,7 +9064,7 @@
         <v>-4654082.664874349</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10057,7 +9097,7 @@
         <v>-4654899.698074349</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10090,7 +9130,7 @@
         <v>-4669595.526974349</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10123,7 +9163,7 @@
         <v>-4686596.375374349</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10156,7 +9196,7 @@
         <v>-4691026.375374349</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10189,7 +9229,7 @@
         <v>-4713603.895274349</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10222,7 +9262,7 @@
         <v>-4714827.584874349</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10255,7 +9295,7 @@
         <v>-4714446.255874349</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10288,7 +9328,7 @@
         <v>-5978673.942274349</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10321,7 +9361,7 @@
         <v>-5980673.942274349</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10354,7 +9394,7 @@
         <v>-5982444.847374349</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10387,7 +9427,7 @@
         <v>-8732444.84737435</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10420,7 +9460,7 @@
         <v>-8732444.84737435</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10453,7 +9493,7 @@
         <v>-8730444.84737435</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10486,7 +9526,7 @@
         <v>-8730444.84737435</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10519,7 +9559,7 @@
         <v>-4730444.84737435</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10552,7 +9592,7 @@
         <v>-4730444.84737435</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10585,7 +9625,7 @@
         <v>-4730444.84737435</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10618,7 +9658,7 @@
         <v>-730444.8473743498</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10651,7 +9691,7 @@
         <v>-730444.8473743498</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10684,7 +9724,7 @@
         <v>-729848.1205743499</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10717,7 +9757,7 @@
         <v>-729947.3937743499</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10750,7 +9790,7 @@
         <v>-739947.3937743499</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10783,7 +9823,7 @@
         <v>-739947.3937743499</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10816,7 +9856,7 @@
         <v>-739947.3937743499</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10849,7 +9889,7 @@
         <v>-739947.3937743499</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10882,7 +9922,7 @@
         <v>-739947.3937743499</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10915,7 +9955,7 @@
         <v>-739947.3937743499</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -14017,7 +13057,7 @@
         <v>-14145925.76247865</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14050,7 +13090,7 @@
         <v>-14145925.76247865</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14083,7 +13123,7 @@
         <v>-14146320.48907865</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14116,7 +13156,7 @@
         <v>-14145036.79203116</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14149,7 +13189,7 @@
         <v>-14145036.79203116</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14182,7 +13222,7 @@
         <v>-14145036.79203116</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14215,7 +13255,7 @@
         <v>-14145036.79203116</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14248,7 +13288,7 @@
         <v>-14138461.49603116</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14281,7 +13321,7 @@
         <v>-14063502.69433116</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14314,7 +13354,7 @@
         <v>-14065669.27203116</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14347,7 +13387,7 @@
         <v>-14063960.61823116</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14380,7 +13420,7 @@
         <v>-14063960.61823116</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14413,7 +13453,7 @@
         <v>-14063960.61823116</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14446,7 +13486,7 @@
         <v>-14060548.14723116</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14479,7 +13519,7 @@
         <v>-14060548.14723116</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14512,7 +13552,7 @@
         <v>-14024770.46883116</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -16525,10 +15565,14 @@
         <v>-13359154.70047987</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="J460" t="n">
+        <v>79.09999999999999</v>
+      </c>
       <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
@@ -16561,8 +15605,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16594,8 +15644,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17317,11 +16373,17 @@
         <v>-13563871.06687987</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>77.59999999999999</v>
+      </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17350,11 +16412,17 @@
         <v>-13523410.8439293</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>77.59999999999999</v>
+      </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17383,11 +16451,17 @@
         <v>-13527673.8439293</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>77.90000000000001</v>
+      </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17416,11 +16490,17 @@
         <v>-13527673.8439293</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>77.59999999999999</v>
+      </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17449,11 +16529,17 @@
         <v>-13525933.7026293</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>77.59999999999999</v>
+      </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17482,11 +16568,17 @@
         <v>-13527609.9384293</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>77.8</v>
+      </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17515,11 +16607,17 @@
         <v>-13524277.0804293</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>77.59999999999999</v>
+      </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17552,7 +16650,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17585,7 +16687,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17618,7 +16724,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17651,7 +16761,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17684,7 +16798,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17717,7 +16835,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17750,7 +16872,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17783,7 +16909,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17816,7 +16946,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17849,7 +16983,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17882,7 +17020,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17915,7 +17057,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17948,7 +17094,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17981,7 +17131,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18010,11 +17164,17 @@
         <v>-13526096.07447368</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>78.2</v>
+      </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18043,11 +17203,17 @@
         <v>-13504891.41997368</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>78.3</v>
+      </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18080,7 +17246,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18113,7 +17283,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18146,7 +17320,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18175,11 +17353,17 @@
         <v>-13476939.0144897</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>78.59999999999999</v>
+      </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18208,11 +17392,17 @@
         <v>-13476939.0144897</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>78.59999999999999</v>
+      </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18241,11 +17431,17 @@
         <v>-13476939.0144897</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>78.59999999999999</v>
+      </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18278,7 +17474,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18307,11 +17507,17 @@
         <v>-13477029.0144897</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>78.40000000000001</v>
+      </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18344,7 +17550,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18373,11 +17583,17 @@
         <v>-13501880.1220897</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>78.59999999999999</v>
+      </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18410,7 +17626,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18443,7 +17663,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18476,7 +17700,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18509,7 +17737,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18542,7 +17774,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18575,7 +17811,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18608,7 +17848,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18641,7 +17885,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18674,7 +17922,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18707,7 +17959,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18740,7 +17996,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18773,7 +18033,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18806,7 +18070,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18839,7 +18107,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18872,7 +18144,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18905,7 +18181,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18938,7 +18218,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18971,7 +18255,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19004,7 +18292,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19037,7 +18329,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19070,7 +18366,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19103,7 +18403,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19136,7 +18440,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19169,7 +18477,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19202,7 +18514,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19235,7 +18551,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19268,7 +18588,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19301,7 +18625,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19334,7 +18662,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19367,7 +18699,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19400,7 +18736,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19433,7 +18773,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19466,7 +18810,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19499,7 +18847,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19532,7 +18884,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19565,7 +18921,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19598,7 +18958,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19631,7 +18995,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19664,7 +19032,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19697,7 +19069,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19730,7 +19106,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19763,13 +19143,17 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
       <c r="M558" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest XLM.xlsx
+++ b/BackTest/2019-10-30 BackTest XLM.xlsx
@@ -8470,7 +8470,7 @@
         <v>-4615860.33185267</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-4610291.684774349</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-8730444.84737435</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-8730444.84737435</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-4730444.84737435</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-730444.8473743498</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-729848.1205743499</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-729947.3937743499</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-739947.3937743499</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-739947.3937743499</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-739947.3937743499</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-739947.3937743499</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-739947.3937743499</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-739947.3937743499</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -13057,10 +13057,14 @@
         <v>-14145925.76247865</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="J384" t="n">
+        <v>77.8</v>
+      </c>
       <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
@@ -13090,11 +13094,19 @@
         <v>-14145925.76247865</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="J385" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13123,11 +13135,19 @@
         <v>-14146320.48907865</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="J386" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13156,10 +13176,14 @@
         <v>-14145036.79203116</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="J387" t="n">
+        <v>77.59999999999999</v>
+      </c>
       <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
@@ -13189,11 +13213,19 @@
         <v>-14145036.79203116</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="J388" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13222,11 +13254,19 @@
         <v>-14145036.79203116</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="J389" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13255,10 +13295,14 @@
         <v>-14145036.79203116</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="J390" t="n">
+        <v>77.90000000000001</v>
+      </c>
       <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
@@ -13288,11 +13332,19 @@
         <v>-14138461.49603116</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="J391" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13321,11 +13373,19 @@
         <v>-14063502.69433116</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>78</v>
+      </c>
+      <c r="J392" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13354,10 +13414,14 @@
         <v>-14065669.27203116</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="J393" t="n">
+        <v>78.2</v>
+      </c>
       <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
@@ -13387,11 +13451,19 @@
         <v>-14063960.61823116</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="J394" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13420,11 +13492,19 @@
         <v>-14063960.61823116</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>78</v>
+      </c>
+      <c r="J395" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13453,10 +13533,14 @@
         <v>-14063960.61823116</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>78</v>
+      </c>
+      <c r="J396" t="n">
+        <v>78</v>
+      </c>
       <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
@@ -13486,11 +13570,19 @@
         <v>-14060548.14723116</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>78</v>
+      </c>
+      <c r="J397" t="n">
+        <v>78</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13519,11 +13611,19 @@
         <v>-14060548.14723116</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="J398" t="n">
+        <v>78</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13552,10 +13652,14 @@
         <v>-14024770.46883116</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="J399" t="n">
+        <v>78.3</v>
+      </c>
       <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
@@ -13585,11 +13689,19 @@
         <v>-14014770.46883116</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="J400" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13618,11 +13730,19 @@
         <v>-14014770.46883116</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="J401" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13651,11 +13771,19 @@
         <v>-13987774.11903116</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="J402" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +13812,19 @@
         <v>-13896515.42953116</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="J403" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13717,11 +13853,19 @@
         <v>-13896515.42953116</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="J404" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13750,11 +13894,19 @@
         <v>-13896515.42953116</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="J405" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13783,11 +13935,19 @@
         <v>-12933784.39823115</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="J406" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13816,11 +13976,17 @@
         <v>-12933784.39823115</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13849,11 +14015,17 @@
         <v>-13419814.32523115</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13882,11 +14054,17 @@
         <v>-13416742.29623115</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13915,11 +14093,17 @@
         <v>-13256792.95513115</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13948,11 +14132,17 @@
         <v>-13341893.90973116</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13984,8 +14174,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14017,8 +14213,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14050,8 +14252,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14083,8 +14291,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14116,8 +14330,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14149,8 +14369,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14182,8 +14408,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14212,13 +14444,19 @@
         <v>-13493737.75353116</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L419" t="n">
-        <v>1</v>
+        <v>1.001385696040868</v>
       </c>
       <c r="M419" t="inlineStr"/>
     </row>
@@ -14245,11 +14483,17 @@
         <v>-13442847.90213116</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>78.8</v>
+      </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14278,11 +14522,17 @@
         <v>-13356252.58013116</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>78.90000000000001</v>
+      </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14311,11 +14561,15 @@
         <v>-13356252.58013116</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14344,11 +14598,17 @@
         <v>-13424502.41033116</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>79.2</v>
+      </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14377,11 +14637,17 @@
         <v>-13424502.41033116</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>79.09999999999999</v>
+      </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14410,11 +14676,17 @@
         <v>-13102534.19503116</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>79.09999999999999</v>
+      </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14443,11 +14715,17 @@
         <v>-13187134.19503116</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>79.2</v>
+      </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14476,11 +14754,15 @@
         <v>-13398611.53413116</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14509,11 +14791,15 @@
         <v>-13453446.98373116</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14546,7 +14832,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14579,7 +14869,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14612,7 +14906,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14641,11 +14939,17 @@
         <v>-13362440.68543116</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>78.59999999999999</v>
+      </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14674,11 +14978,17 @@
         <v>-13346580.04653116</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>78.59999999999999</v>
+      </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14707,11 +15017,17 @@
         <v>-13346580.04653116</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>78.8</v>
+      </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14744,7 +15060,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14773,11 +15093,17 @@
         <v>-13369413.04653116</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>78.59999999999999</v>
+      </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14806,11 +15132,17 @@
         <v>-13383524.06773116</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>78.7</v>
+      </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14839,11 +15171,17 @@
         <v>-13383524.06773116</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>78.59999999999999</v>
+      </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14872,11 +15210,17 @@
         <v>-13378224.06773116</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>78.59999999999999</v>
+      </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14905,11 +15249,17 @@
         <v>-13379785.72623116</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>78.8</v>
+      </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14938,11 +15288,17 @@
         <v>-13379151.20846467</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>78.7</v>
+      </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14971,11 +15327,17 @@
         <v>-13382221.79088902</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>78.8</v>
+      </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15004,11 +15366,17 @@
         <v>-13384636.52168902</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>78.7</v>
+      </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15037,11 +15405,17 @@
         <v>-13384636.52168902</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>78.59999999999999</v>
+      </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15070,11 +15444,17 @@
         <v>-13427006.01668902</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>78.59999999999999</v>
+      </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15103,11 +15483,17 @@
         <v>-13427006.01668902</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>78.5</v>
+      </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15136,11 +15522,17 @@
         <v>-13426683.18314392</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>78.5</v>
+      </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15169,11 +15561,17 @@
         <v>-13398346.11504392</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>78.7</v>
+      </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15206,7 +15604,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15239,7 +15641,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15272,7 +15678,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15301,11 +15711,17 @@
         <v>-13480182.59954392</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>78.40000000000001</v>
+      </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15334,11 +15750,17 @@
         <v>-13469793.94594392</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>78.5</v>
+      </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15367,11 +15789,17 @@
         <v>-13469793.94594392</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>78.7</v>
+      </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15400,11 +15828,17 @@
         <v>-13469793.94594392</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>78.7</v>
+      </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15433,11 +15867,17 @@
         <v>-13469793.94594392</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>78.7</v>
+      </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15466,11 +15906,17 @@
         <v>-13381453.26474392</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>78.7</v>
+      </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15499,11 +15945,17 @@
         <v>-13378617.01757987</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>78.8</v>
+      </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15536,7 +15988,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15565,15 +16021,15 @@
         <v>-13359154.70047987</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="J460" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="K460" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15605,12 +16061,10 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>79.09999999999999</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L461" t="n">
@@ -15644,12 +16098,10 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>79.09999999999999</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L462" t="n">
@@ -15684,7 +16136,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15717,7 +16173,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15746,11 +16206,17 @@
         <v>-13361611.84987987</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>78.90000000000001</v>
+      </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15779,11 +16245,17 @@
         <v>-13365318.84987987</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>78.90000000000001</v>
+      </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15812,11 +16284,17 @@
         <v>-13365318.84987987</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>78.8</v>
+      </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15845,11 +16323,17 @@
         <v>-13365588.26347987</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>78.8</v>
+      </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15878,11 +16362,17 @@
         <v>-13365588.26347987</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>78.59999999999999</v>
+      </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15911,11 +16401,17 @@
         <v>-13388671.98687987</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>78.59999999999999</v>
+      </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15944,11 +16440,17 @@
         <v>-13388671.98687987</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>78.5</v>
+      </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15977,11 +16479,17 @@
         <v>-13554639.79777987</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>78.5</v>
+      </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16010,11 +16518,17 @@
         <v>-13559067.12727987</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>78.2</v>
+      </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16043,11 +16557,17 @@
         <v>-13575276.70037987</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>77.90000000000001</v>
+      </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16076,11 +16596,17 @@
         <v>-13583364.80767987</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>77.59999999999999</v>
+      </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16109,11 +16635,17 @@
         <v>-13579497.32497988</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>77.40000000000001</v>
+      </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16142,11 +16674,17 @@
         <v>-13579473.35597987</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>77.5</v>
+      </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16175,11 +16713,17 @@
         <v>-13579473.35597987</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>77.59999999999999</v>
+      </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16208,11 +16752,17 @@
         <v>-13579473.35597987</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>77.59999999999999</v>
+      </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16241,11 +16791,17 @@
         <v>-13580134.76007988</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>77.59999999999999</v>
+      </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16274,11 +16830,17 @@
         <v>-13577951.78137987</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>77.5</v>
+      </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16307,11 +16869,17 @@
         <v>-13580584.86837987</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>77.8</v>
+      </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16340,11 +16908,17 @@
         <v>-13563871.06687987</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>77.5</v>
+      </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16381,7 +16955,7 @@
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L484" t="n">
@@ -16646,9 +17220,11 @@
         <v>-13519456.5640293</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>77.8</v>
+      </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
@@ -16683,9 +17259,11 @@
         <v>-13510708.1040293</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>78</v>
+      </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
@@ -16720,9 +17298,11 @@
         <v>-13496251.63407368</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>78.09999999999999</v>
+      </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
@@ -16757,9 +17337,11 @@
         <v>-13496251.63407368</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>78.2</v>
+      </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
@@ -16794,9 +17376,11 @@
         <v>-13498574.63397368</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>78.2</v>
+      </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
@@ -16831,9 +17415,11 @@
         <v>-13498574.63397368</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>78.09999999999999</v>
+      </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
@@ -16868,9 +17454,11 @@
         <v>-13504647.59957368</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>78.09999999999999</v>
+      </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
@@ -16905,9 +17493,11 @@
         <v>-13502902.92447368</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>78</v>
+      </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
@@ -16942,9 +17532,11 @@
         <v>-13502902.92447368</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>78.5</v>
+      </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
@@ -16979,9 +17571,11 @@
         <v>-13506638.25327368</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>78.5</v>
+      </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
@@ -17016,9 +17610,11 @@
         <v>-13506422.66807368</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>78.3</v>
+      </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
@@ -17053,9 +17649,11 @@
         <v>-13574149.73327368</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>78.59999999999999</v>
+      </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
@@ -17090,9 +17688,11 @@
         <v>-13574149.73327368</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>78.3</v>
+      </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
@@ -17127,9 +17727,11 @@
         <v>-13590593.44107368</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>78.3</v>
+      </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
@@ -17242,9 +17844,11 @@
         <v>-13504891.41997368</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>78.40000000000001</v>
+      </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
@@ -17279,9 +17883,11 @@
         <v>-13462236.5101897</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>78.40000000000001</v>
+      </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
@@ -17316,9 +17922,11 @@
         <v>-13476939.0144897</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>78.7</v>
+      </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
@@ -17470,9 +18078,11 @@
         <v>-13477039.0144897</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>78.59999999999999</v>
+      </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
@@ -17546,9 +18156,11 @@
         <v>-13478029.0144897</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>78.7</v>
+      </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
@@ -17622,9 +18234,11 @@
         <v>-13501880.1220897</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>78.40000000000001</v>
+      </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
@@ -17659,9 +18273,11 @@
         <v>-13489343.3948897</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>78.40000000000001</v>
+      </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
@@ -17696,9 +18312,11 @@
         <v>-13489393.3948897</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>78.59999999999999</v>
+      </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
@@ -17733,9 +18351,11 @@
         <v>-13481168.4575897</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>78.40000000000001</v>
+      </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
@@ -17770,9 +18390,11 @@
         <v>-13494056.6575897</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>78.59999999999999</v>
+      </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
@@ -17807,9 +18429,11 @@
         <v>-13494056.6575897</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>78.40000000000001</v>
+      </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
@@ -17844,9 +18468,11 @@
         <v>-13494056.6575897</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>78.40000000000001</v>
+      </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
@@ -17881,9 +18507,11 @@
         <v>-13494056.6575897</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>78.40000000000001</v>
+      </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
@@ -17918,9 +18546,11 @@
         <v>-13494056.6575897</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>78.40000000000001</v>
+      </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
@@ -17955,9 +18585,11 @@
         <v>-13494056.6575897</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>78.40000000000001</v>
+      </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
@@ -17992,9 +18624,11 @@
         <v>-13494056.6575897</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>78.40000000000001</v>
+      </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
@@ -18029,9 +18663,11 @@
         <v>-13494056.6575897</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>78.40000000000001</v>
+      </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
@@ -18066,9 +18702,11 @@
         <v>-13494056.6575897</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>78.40000000000001</v>
+      </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
@@ -18103,9 +18741,11 @@
         <v>-13494559.3294897</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>78.40000000000001</v>
+      </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
@@ -18140,9 +18780,11 @@
         <v>-13358301.9781897</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>78.3</v>
+      </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
@@ -18177,9 +18819,11 @@
         <v>-13373070.9661897</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>78.40000000000001</v>
+      </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
@@ -18214,9 +18858,11 @@
         <v>-13373070.9661897</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>78.2</v>
+      </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
@@ -18251,9 +18897,11 @@
         <v>-13380349.04138971</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>78.2</v>
+      </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
@@ -18288,9 +18936,11 @@
         <v>-13445060.00298971</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>78.09999999999999</v>
+      </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
@@ -18325,9 +18975,11 @@
         <v>-13421723.4364897</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>78</v>
+      </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
@@ -18362,9 +19014,11 @@
         <v>-13421723.4364897</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>78.3</v>
+      </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
@@ -18399,9 +19053,11 @@
         <v>-13421723.4364897</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>78.3</v>
+      </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
@@ -18436,9 +19092,11 @@
         <v>-13421723.4364897</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>78.3</v>
+      </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
@@ -18473,9 +19131,11 @@
         <v>-13416746.34828971</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>78.3</v>
+      </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
@@ -18510,9 +19170,11 @@
         <v>-13416746.34828971</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>78.40000000000001</v>
+      </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
@@ -18547,9 +19209,11 @@
         <v>-13416746.34828971</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>78.40000000000001</v>
+      </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
@@ -18584,9 +19248,11 @@
         <v>-13425848.33948971</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>78.40000000000001</v>
+      </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
@@ -18621,9 +19287,11 @@
         <v>-13425848.33948971</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>78.2</v>
+      </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
@@ -18658,9 +19326,11 @@
         <v>-13466356.13158971</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>78.2</v>
+      </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
@@ -18695,9 +19365,11 @@
         <v>-13480664.16508971</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>78.09999999999999</v>
+      </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
@@ -18732,9 +19404,11 @@
         <v>-13490939.99858971</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>78</v>
+      </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
@@ -18769,9 +19443,11 @@
         <v>-13470579.94599637</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>77.90000000000001</v>
+      </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
@@ -18806,9 +19482,11 @@
         <v>-13484879.94599637</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>78.09999999999999</v>
+      </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
@@ -18843,9 +19521,11 @@
         <v>-13484879.94599637</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>77.90000000000001</v>
+      </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
@@ -18880,9 +19560,11 @@
         <v>-13491555.46529637</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>77.90000000000001</v>
+      </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
@@ -18917,9 +19599,11 @@
         <v>-13491555.46529637</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>77.8</v>
+      </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
@@ -18954,9 +19638,11 @@
         <v>-13491625.13839637</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>77.8</v>
+      </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
@@ -18991,9 +19677,11 @@
         <v>-13491359.68269637</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>77.7</v>
+      </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
@@ -19028,9 +19716,11 @@
         <v>-13481506.95689637</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>77.8</v>
+      </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
@@ -19065,9 +19755,11 @@
         <v>-13481506.95689637</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>77.90000000000001</v>
+      </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
@@ -19102,9 +19794,11 @@
         <v>-13480157.89279637</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>77.90000000000001</v>
+      </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
@@ -19139,9 +19833,11 @@
         <v>-13480803.89279637</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>78</v>
+      </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
